--- a/files/模板.xlsx
+++ b/files/模板.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{858BB32E-DCBB-4094-8635-95B735B38D05}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>序号</t>
   </si>
@@ -38,13 +37,17 @@
   </si>
   <si>
     <t>发证时间</t>
+  </si>
+  <si>
+    <t>证书类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,7 +194,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -224,26 +227,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -276,23 +262,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -468,16 +437,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,13 +463,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -508,8 +480,9 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -517,8 +490,9 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -526,8 +500,9 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -535,8 +510,9 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -544,8 +520,9 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -553,8 +530,9 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -562,8 +540,9 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -571,8 +550,9 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -580,8 +560,9 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -589,8 +570,9 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -598,8 +580,9 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -607,8 +590,9 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -616,8 +600,9 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -625,8 +610,9 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -634,8 +620,9 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -643,8 +630,9 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -652,8 +640,9 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -661,8 +650,9 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -670,6 +660,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -679,12 +670,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -693,12 +684,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/files/模板.xlsx
+++ b/files/模板.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>序号</t>
   </si>
@@ -38,16 +38,12 @@
   <si>
     <t>发证时间</t>
   </si>
-  <si>
-    <t>证书类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,7 +190,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -229,7 +225,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -438,15 +434,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,16 +459,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -480,9 +473,8 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -490,9 +482,8 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -500,9 +491,8 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -510,9 +500,8 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -520,9 +509,8 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -530,9 +518,8 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -540,9 +527,8 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -550,9 +536,8 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -560,9 +545,8 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -570,9 +554,8 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -580,9 +563,8 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -590,9 +572,8 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -600,9 +581,8 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -610,9 +590,8 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -620,9 +599,8 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -630,9 +608,8 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -640,9 +617,8 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -650,9 +626,8 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -660,7 +635,6 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -675,7 +649,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -689,7 +663,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
